--- a/SCIPY_DEF.xlsx
+++ b/SCIPY_DEF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Documents\GitHub\Pyvisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98151C43-8170-4086-B3EE-6C09AA344166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967920B-DC18-4F87-8648-448952F424A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16215" yWindow="585" windowWidth="23880" windowHeight="15105" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="240" windowWidth="28650" windowHeight="15105" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XDM2041" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="265">
   <si>
     <t>Name</t>
   </si>
@@ -213,63 +213,9 @@
     <t>STATUS?</t>
   </si>
   <si>
-    <t>Read desired output voltage</t>
-  </si>
-  <si>
-    <t>VSET1?</t>
-  </si>
-  <si>
-    <t>Set desired output voltage</t>
-  </si>
-  <si>
-    <t>VSET1:{VOLT}</t>
-  </si>
-  <si>
-    <t>VOLT:V.2f</t>
-  </si>
-  <si>
-    <t>Read actual output voltage</t>
-  </si>
-  <si>
-    <t>VOUT1?</t>
-  </si>
-  <si>
-    <t>Read desired output current</t>
-  </si>
-  <si>
-    <t>ISET1?</t>
-  </si>
-  <si>
-    <t>Set desired output current</t>
-  </si>
-  <si>
-    <t>ISET1:{CURRENT}</t>
-  </si>
-  <si>
-    <t>CURRENT:V.3f</t>
-  </si>
-  <si>
-    <t>Read actual output current</t>
-  </si>
-  <si>
-    <t>IOUT1?</t>
-  </si>
-  <si>
-    <t>Set over voltage protection</t>
-  </si>
-  <si>
-    <t>OVP{STATE}</t>
-  </si>
-  <si>
     <t>STATE:0;1</t>
   </si>
   <si>
-    <t>Set over current protection</t>
-  </si>
-  <si>
-    <t>OCP{STATE}</t>
-  </si>
-  <si>
     <t>Set output state</t>
   </si>
   <si>
@@ -291,39 +237,6 @@
     <t>*CLS</t>
   </si>
   <si>
-    <t>Operation complete</t>
-  </si>
-  <si>
-    <t>*OPC?</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Set return header format</t>
-  </si>
-  <si>
-    <t>CHDR {FORMAT}</t>
-  </si>
-  <si>
-    <t>FORMAT:SHORT;LONG;OFF</t>
-  </si>
-  <si>
-    <t>Output status</t>
-  </si>
-  <si>
-    <t>{CH}:OUTP?</t>
-  </si>
-  <si>
-    <t>CH:C1;C2</t>
-  </si>
-  <si>
-    <t>C1:OUTP ON,LOAD,HZ,PLRT,NOR</t>
-  </si>
-  <si>
     <t>Output enable/disable</t>
   </si>
   <si>
@@ -351,15 +264,6 @@
     <t>CH:C1;C2 | PLRT:NOR;INVT</t>
   </si>
   <si>
-    <t>Basic wave parameters</t>
-  </si>
-  <si>
-    <t>{CH}:BSWV?</t>
-  </si>
-  <si>
-    <t>C1:BSWV WVTP,SINE,FRQ,100HZ,PERI,0.01S,AMP,2V,OFST,0V,HLEV,1V,LLEV,-1V,PHSE,0</t>
-  </si>
-  <si>
     <t>Set waveform type</t>
   </si>
   <si>
@@ -369,75 +273,9 @@
     <t>CH:C1;C2 | WVTP:SINE;SQUARE;RAMP;PULSE;NOISE;ARB;DC</t>
   </si>
   <si>
-    <t>Set frequency</t>
-  </si>
-  <si>
-    <t>{CH}:BSWV FRQ,{FREQ}</t>
-  </si>
-  <si>
     <t>CH:C1;C2 | FREQ:Hz</t>
   </si>
   <si>
-    <t>Set period</t>
-  </si>
-  <si>
-    <t>{CH}:BSWV PERI,{PERI}</t>
-  </si>
-  <si>
-    <t>Set amplitude</t>
-  </si>
-  <si>
-    <t>{CH}:BSWV AMP,{AMP}</t>
-  </si>
-  <si>
-    <t>Set offset</t>
-  </si>
-  <si>
-    <t>{CH}:BSWV OFST,{OFST}</t>
-  </si>
-  <si>
-    <t>Set high level</t>
-  </si>
-  <si>
-    <t>{CH}:BSWV HLEV,{HLEV}</t>
-  </si>
-  <si>
-    <t>Set low level</t>
-  </si>
-  <si>
-    <t>{CH}:BSWV LLEV,{LLEV}</t>
-  </si>
-  <si>
-    <t>Set phase</t>
-  </si>
-  <si>
-    <t>{CH}:BSWV PHSE,{PHSE}</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | PHSE:deg (0..360)</t>
-  </si>
-  <si>
-    <t>Set duty cycle</t>
-  </si>
-  <si>
-    <t>{CH}:BSWV DUTY,{DUTY}</t>
-  </si>
-  <si>
-    <t>Set pulse width</t>
-  </si>
-  <si>
-    <t>{CH}:BSWV WIDTH,{WIDTH}</t>
-  </si>
-  <si>
-    <t>Modulation parameters</t>
-  </si>
-  <si>
-    <t>{CH}:MDWV?</t>
-  </si>
-  <si>
-    <t>C1:MDWV STATE,OFF</t>
-  </si>
-  <si>
     <t>Modulation state</t>
   </si>
   <si>
@@ -498,39 +336,12 @@
     <t>{CH}:MDWV FM,FRQ,{FREQ}</t>
   </si>
   <si>
-    <t>Sweep parameters</t>
-  </si>
-  <si>
-    <t>{CH}:SWWV?</t>
-  </si>
-  <si>
-    <t>C2:SWWV STATE,OFF</t>
-  </si>
-  <si>
     <t>Sweep state</t>
   </si>
   <si>
     <t>{CH}:SWWV STATE,{STATE}</t>
   </si>
   <si>
-    <t>Sweep start frequency</t>
-  </si>
-  <si>
-    <t>{CH}:SWWV START,{FREQ}</t>
-  </si>
-  <si>
-    <t>Sweep stop frequency</t>
-  </si>
-  <si>
-    <t>{CH}:SWWV STOP,{FREQ}</t>
-  </si>
-  <si>
-    <t>Sweep time</t>
-  </si>
-  <si>
-    <t>{CH}:SWWV TIME,{TIME}</t>
-  </si>
-  <si>
     <t>Sweep trigger source</t>
   </si>
   <si>
@@ -564,18 +375,6 @@
     <t>{CH}:SWWV MTRIG</t>
   </si>
   <si>
-    <t>CH:C1;C2 (only when TRSR=MAN)</t>
-  </si>
-  <si>
-    <t>Burst parameters</t>
-  </si>
-  <si>
-    <t>{CH}:BTWV?</t>
-  </si>
-  <si>
-    <t>C2:BTWV STATE,OFF</t>
-  </si>
-  <si>
     <t>Burst state</t>
   </si>
   <si>
@@ -597,72 +396,6 @@
     <t>{CH}:BTWV TRSR,{TRSR}</t>
   </si>
   <si>
-    <t>Burst cycles (NCYC)</t>
-  </si>
-  <si>
-    <t>{CH}:BTWV TIME,{NCYC}</t>
-  </si>
-  <si>
-    <t>Burst delay</t>
-  </si>
-  <si>
-    <t>{CH}:BTWV DLAY,{DLAY}</t>
-  </si>
-  <si>
-    <t>Arbitrary wave (by index)</t>
-  </si>
-  <si>
-    <t>{CH}:ARWV INDEX,{INDEX}</t>
-  </si>
-  <si>
-    <t>Arbitrary wave (by name)</t>
-  </si>
-  <si>
-    <t>{CH}:ARWV NAME,{NAME}</t>
-  </si>
-  <si>
-    <t>Arbitrary wave query</t>
-  </si>
-  <si>
-    <t>{CH}:ARWV?</t>
-  </si>
-  <si>
-    <t>ARWV INDEX,2,NAME,Gauspuls</t>
-  </si>
-  <si>
-    <t>Sync output state</t>
-  </si>
-  <si>
-    <t>{CH}:SYNC {STATE}</t>
-  </si>
-  <si>
-    <t>Sync output query</t>
-  </si>
-  <si>
-    <t>{CH}:SYNC?</t>
-  </si>
-  <si>
-    <t>C1:SYNC OFF</t>
-  </si>
-  <si>
-    <t>Clock source</t>
-  </si>
-  <si>
-    <t>ROSC {SRC}</t>
-  </si>
-  <si>
-    <t>SRC:INT;EXT</t>
-  </si>
-  <si>
-    <t>Clock source query</t>
-  </si>
-  <si>
-    <t>ROSC?</t>
-  </si>
-  <si>
-    <t>ROSC INT</t>
-  </si>
-  <si>
     <t>Copy channel parameters</t>
   </si>
   <si>
@@ -672,54 +405,12 @@
     <t>DEST:C1;C2 | SRC:C1;C2</t>
   </si>
   <si>
-    <t>List stored waveforms</t>
-  </si>
-  <si>
-    <t>STL?</t>
-  </si>
-  <si>
     <t>CH:C1;C2 | FREQ</t>
   </si>
   <si>
-    <t>CH:C1;C2 | PERI</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | AMP</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | OFST</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | HLEV</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | LLEV</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | DUTY</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | WIDTH</t>
-  </si>
-  <si>
     <t>CH:C1;C2 | DEPTH</t>
   </si>
   <si>
-    <t>CH:C1;C2 | TIME</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | NCYC</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | DLAY</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | INDEX</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | NAME</t>
-  </si>
-  <si>
     <t>Parameter(s)</t>
   </si>
   <si>
@@ -1083,9 +774,6 @@
     <t>TRMD {state}</t>
   </si>
   <si>
-    <t>trigger mode</t>
-  </si>
-  <si>
     <t>CH:C1;C2;C3;C4 | V_GAIN</t>
   </si>
   <si>
@@ -1093,6 +781,75 @@
   </si>
   <si>
     <t>trig_type:EDGE;GLIT;SLEW;INTV | source:C1;C2;C3;C4;LINE;EX;EX5</t>
+  </si>
+  <si>
+    <t>{VA}SET1:{VOLT}</t>
+  </si>
+  <si>
+    <t>Get target level</t>
+  </si>
+  <si>
+    <t>Set target level</t>
+  </si>
+  <si>
+    <t>Get actual level</t>
+  </si>
+  <si>
+    <t>{VA}SET1?</t>
+  </si>
+  <si>
+    <t>{VA}OUT1?</t>
+  </si>
+  <si>
+    <t>Set protection</t>
+  </si>
+  <si>
+    <t>MODE:OCP;OVP|STATE:0;1</t>
+  </si>
+  <si>
+    <t>{MODE}{STATE}</t>
+  </si>
+  <si>
+    <t>VA:V;I|VOLT:V.2f</t>
+  </si>
+  <si>
+    <t>VA:V;I</t>
+  </si>
+  <si>
+    <t>Trigger type</t>
+  </si>
+  <si>
+    <t>Set Sweep parameter</t>
+  </si>
+  <si>
+    <t>CH:C1;C2 | parameter:START;STOP;TIME|value</t>
+  </si>
+  <si>
+    <t>{CH}:SWWV {parameter},{value}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH:C1;C2 </t>
+  </si>
+  <si>
+    <t>(only when TRSR=MAN)</t>
+  </si>
+  <si>
+    <t>Set waveform parameter</t>
+  </si>
+  <si>
+    <t>{CH}:BSWV {PARAM},{VALUE}</t>
+  </si>
+  <si>
+    <t>CH:C1;C2 | PARAM:FREQ;PERI;AMP;OFST;HLEV;LLEV;PHSE;DUTY;WIDTH|VALUE</t>
+  </si>
+  <si>
+    <t>AM: set Parameter</t>
+  </si>
+  <si>
+    <t>{CH}:MDWV AM,{PARAM},{VALUE}</t>
+  </si>
+  <si>
+    <t>CH:C1;C2 | PARAM:FRQ;DEPTH|VALUE</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +960,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1252,7 +1009,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1306,7 +1063,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1360,7 +1117,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1414,7 +1171,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1468,7 +1225,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1522,7 +1279,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1531,6 +1288,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95988BE4-A3D7-49BA-9BED-DE404DE3DB36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11830050" cy="9201150"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5598CF51-865F-4F6C-BD00-803E53BF55AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11830050" cy="9201150"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABA4BD6-DB26-4D4A-9C38-D1CEFC418B44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,17 +1829,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
@@ -1992,9 +1857,6 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2009,9 +1871,6 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
       <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
@@ -2026,134 +1885,75 @@
       <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
+        <v>247</v>
+      </c>
+      <c r="D6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2163,15 +1963,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
@@ -2206,11 +2008,8 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2223,134 +2022,75 @@
       <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
+        <v>247</v>
+      </c>
+      <c r="D6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2360,19 +2100,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.28515625" customWidth="1"/>
+    <col min="7" max="7" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -2411,865 +2151,451 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="27.95" customHeight="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="27.95" customHeight="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.95" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="27.95" customHeight="1">
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.95" customHeight="1">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>91</v>
+        <v>261</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>94</v>
-      </c>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="27.95" customHeight="1">
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="27.95" customHeight="1">
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27.95" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="27.95" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="27.95" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="27.95" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="E15" s="5"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="27.95" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="27.95" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="E18" s="5"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="27.95" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E19" s="5"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>214</v>
-      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="27.95" customHeight="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="27.95" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="E23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="27.95" customHeight="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E24" s="5"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="27.95" customHeight="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="27.95" customHeight="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="27.95" customHeight="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>257</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>258</v>
+      </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="5"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="27.95" customHeight="1">
+    <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="E29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="27.95" customHeight="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E30" s="5"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="27.95" customHeight="1">
+    <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="27.95" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E32" s="5"/>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>207</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="5"/>
       <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A44" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A45" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A48" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A49" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A50" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A51" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A52" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A54" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3305,12 +2631,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -3322,217 +2648,217 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>260</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>261</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -3552,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC2B197-BBF6-4032-B079-82991FDC08F6}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3563,7 +2889,7 @@
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="75" customWidth="1"/>
+    <col min="4" max="4" width="162.42578125" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
@@ -3587,7 +2913,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -3599,134 +2925,100 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>338</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>336</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>345</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>324</v>
+        <v>221</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>326</v>
+        <v>223</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>328</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>325</v>
+        <v>222</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>327</v>
+        <v>224</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>329</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>332</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3736,69 +3028,97 @@
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>269</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4">
@@ -3820,318 +3140,313 @@
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>277</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>282</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>183</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>292</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="8" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>193</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>297</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="8" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>198</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>307</v>
+        <v>206</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>312</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D44" s="8"/>
+        <v>213</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>317</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D46" s="8"/>
+        <v>218</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
